--- a/Documentos/Listas de variáveis por classe/ABCDario/Learn_123.xlsx
+++ b/Documentos/Listas de variáveis por classe/ABCDario/Learn_123.xlsx
@@ -18,9 +18,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>Function</t>
-  </si>
-  <si>
     <t>Tipo</t>
   </si>
   <si>
@@ -46,6 +43,9 @@
   </si>
   <si>
     <t>variable that corresponds to grid numbers</t>
+  </si>
+  <si>
+    <t>Learn_123</t>
   </si>
 </sst>
 </file>
@@ -167,10 +167,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -470,7 +470,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -481,7 +481,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -490,42 +490,42 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
+      <c r="C4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
